--- a/experiment result/128_0.7_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.7_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.009399742729620781</v>
+        <v>0.001749344001772776</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01788680542805885</v>
+        <v>0.005427657968232604</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03629263074250642</v>
+        <v>0.007477394439436763</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04026517548551325</v>
+        <v>0.006938363167149996</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02599585594777758</v>
+        <v>0.005546058033937311</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02826394172329923</v>
+        <v>0.005513370146598035</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02457445803375635</v>
+        <v>0.00329308781329008</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02986594968744001</v>
+        <v>0.006821701059435759</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03243767111688848</v>
+        <v>0.006246425901344162</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05052995328127467</v>
+        <v>0.02161646131110489</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0343190176048094</v>
+        <v>0.003890152667281922</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04264787613470591</v>
+        <v>0.01701721190051951</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01718411704686221</v>
+        <v>0.002021448782535807</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02375944859872633</v>
+        <v>0.003326616419693395</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03051145899155916</v>
+        <v>0.004842842460350804</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01549907897708824</v>
+        <v>0.004544022696732613</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03711229396827508</v>
+        <v>0.005926062450705094</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01510654591372182</v>
+        <v>0.000996290496384813</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02600164733061941</v>
+        <v>0.01323042790518038</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03253995673116602</v>
+        <v>0.006470423741102844</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01492414360330293</v>
+        <v>0.003335883234971537</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02460970355838436</v>
+        <v>0.001647486268251126</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04258520400712479</v>
+        <v>0.007768807231654379</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01204974221915206</v>
+        <v>0.001880048942733583</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01560699161282311</v>
+        <v>0.00258327336319268</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03176561938758356</v>
+        <v>0.006682118616835877</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04384085432639494</v>
+        <v>0.007683967018029411</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04936670451312825</v>
+        <v>0.01201897049426256</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02830843151531955</v>
+        <v>0.007050346289961673</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01602542209489545</v>
+        <v>0.006070862211465823</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009912650438136935</v>
+        <v>0.000879248631840623</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0263901113116271</v>
+        <v>0.003141543574403946</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0567668402991159</v>
+        <v>0.01420626591618113</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02172805195411918</v>
+        <v>0.008106301458317162</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02259375545969178</v>
+        <v>0.005566425385487899</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04389479984666755</v>
+        <v>0.01618140876862144</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01822559318673867</v>
+        <v>0.001799726821435731</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02427143914652265</v>
+        <v>0.001881908373533911</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03698460326129226</v>
+        <v>0.009388366440083493</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05137688238124156</v>
+        <v>0.01686097045581029</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0285499866883721</v>
+        <v>0.01232617462333563</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01532769162875938</v>
+        <v>0.005100038512157757</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02589807521601994</v>
+        <v>0.008059728449254993</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02937310676074011</v>
+        <v>0.006453431237944643</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03202148400009396</v>
+        <v>0.01083905818240177</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04230982320380957</v>
+        <v>0.006945144958479438</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02867563132028406</v>
+        <v>0.009955755179387878</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01156284435405508</v>
+        <v>0.003012333313758663</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01381015753855775</v>
+        <v>0.002380732134649542</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01219843252571939</v>
+        <v>0.003224531915117576</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03690685582384656</v>
+        <v>0.003775273970976808</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02977905399153938</v>
+        <v>0.003782940240698424</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.008210446544780963</v>
+        <v>0.001245350149810788</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00560035800952322</v>
+        <v>0.002072828174836792</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02398034084501125</v>
+        <v>0.003833067712636015</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03644763502761126</v>
+        <v>0.004549637635992367</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02210113999184226</v>
+        <v>0.007044039144929473</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02390245188662805</v>
+        <v>0.009387459172190322</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02032835613577945</v>
+        <v>0.003861555667841707</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01755138892626624</v>
+        <v>0.002791451545922737</v>
       </c>
     </row>
   </sheetData>
